--- a/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.1858</v>
+        <v>-0.2353</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.146</v>
+        <v>-0.2387</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2353</v>
+        <v>-0.1053</v>
       </c>
     </row>
     <row r="5">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0152</v>
+        <v>0.4503</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0551</v>
+        <v>0.0152</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.313</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.0236</v>
+        <v>0.6127</v>
       </c>
     </row>
     <row r="11">
@@ -608,11 +608,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1301</v>
+        <v>0.1263</v>
       </c>
     </row>
     <row r="13">
@@ -623,11 +623,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1263</v>
+        <v>-0.127</v>
       </c>
     </row>
     <row r="14">
@@ -638,11 +638,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.09089999999999999</v>
+        <v>-0.1649</v>
       </c>
     </row>
     <row r="15">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>bank</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.0265</v>
+        <v>0.0898</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0035</v>
+        <v>-0.1159</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rate</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0598</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="20">

--- a/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.2353</v>
+        <v>-0.3228</v>
       </c>
     </row>
     <row r="3">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1053</v>
+        <v>-0.3122</v>
       </c>
     </row>
     <row r="5">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4503</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.0152</v>
+        <v>0.6127</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.0236</v>
+        <v>0.07969999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6127</v>
+        <v>-0.4164</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.4366</v>
       </c>
     </row>
     <row r="12">
@@ -608,11 +608,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1263</v>
+        <v>-0.127</v>
       </c>
     </row>
     <row r="13">
@@ -623,11 +623,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.127</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -638,11 +638,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1649</v>
+        <v>-0.0998</v>
       </c>
     </row>
     <row r="15">
@@ -653,11 +653,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.0998</v>
+        <v>-0.1474</v>
       </c>
     </row>
     <row r="16">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>bank</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0898</v>
+        <v>-0.1159</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.1159</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.0035</v>
+        <v>-0.0366</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.2025</v>
+        <v>0.1352</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +743,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.0366</v>
+        <v>-0.2433</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.2387</v>
+        <v>-0.3122</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.3122</v>
+        <v>-0.2032</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.2032</v>
+        <v>-0.1382</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1382</v>
+        <v>-0.356</v>
       </c>
     </row>
     <row r="7">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6127</v>
+        <v>0.07969999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.07969999999999999</v>
+        <v>-0.4164</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.4164</v>
+        <v>0.4366</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.4366</v>
+        <v>0.8377</v>
       </c>
     </row>
     <row r="12">
@@ -608,11 +608,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.127</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -623,11 +623,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.06569999999999999</v>
+        <v>-0.0998</v>
       </c>
     </row>
     <row r="14">
@@ -638,11 +638,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.0998</v>
+        <v>0.008500000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.1159</v>
+        <v>0.0035</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0035</v>
+        <v>-0.0366</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.0366</v>
+        <v>0.1352</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1352</v>
+        <v>-0.3374</v>
       </c>
     </row>
     <row r="21">

--- a/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.2032</v>
+        <v>-0.1905</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.356</v>
+        <v>-0.2534</v>
       </c>
     </row>
     <row r="7">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.008500000000000001</v>
+        <v>-0.09619999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1474</v>
+        <v>-0.1881</v>
       </c>
     </row>
     <row r="16">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1455</v>
+        <v>0.1578</v>
       </c>
     </row>
     <row r="17">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0035</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="18">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1352</v>
+        <v>0.2071</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.3374</v>
+        <v>-0.3541</v>
       </c>
     </row>
     <row r="21">

--- a/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
@@ -453,67 +453,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2006_2007</t>
+          <t>2008_2009</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.3228</v>
+        <v>-0.0236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2006_2007</t>
+          <t>2008_2009</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.3122</v>
+        <v>0.07969999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2006_2007</t>
+          <t>2008_2009</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.1905</v>
+        <v>-0.4164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2006_2007</t>
+          <t>2008_2009</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1382</v>
+        <v>0.4366</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2006_2007</t>
+          <t>2008_2009</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -522,28 +522,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.2534</v>
+        <v>0.8377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2008_2009</t>
+          <t>2010_2019</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.0236</v>
+        <v>0.06569999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2008_2009</t>
+          <t>2010_2019</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,28 +552,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.07969999999999999</v>
+        <v>-0.0998</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2008_2009</t>
+          <t>2010_2019</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4164</v>
+        <v>-0.09619999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2008_2009</t>
+          <t>2010_2019</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -582,43 +582,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4366</v>
+        <v>-0.1881</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2008_2009</t>
+          <t>2010_2019</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8377</v>
+        <v>0.1578</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2010_2019</t>
+          <t>2020_2021</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.06569999999999999</v>
+        <v>-0.2313</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2010_2019</t>
+          <t>2020_2021</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -627,58 +627,58 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.0998</v>
+        <v>-0.0225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2010_2019</t>
+          <t>2020_2021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.09619999999999999</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2010_2019</t>
+          <t>2020_2021</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1881</v>
+        <v>-0.1777</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2010_2019</t>
+          <t>2020_2021</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1578</v>
+        <v>-0.1577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020_2023</t>
+          <t>2022_2023</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.0071</v>
+        <v>-0.246</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020_2023</t>
+          <t>2022_2023</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,52 +702,52 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.0366</v>
+        <v>-0.4429</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020_2023</t>
+          <t>2022_2023</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2071</v>
+        <v>-0.3414</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020_2023</t>
+          <t>2022_2023</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.3541</v>
+        <v>0.1738</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020_2023</t>
+          <t>2022_2023</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.2433</v>
+        <v>-0.7594</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2008_2009</t>
+          <t>2007-12_2009-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2008_2009</t>
+          <t>2007-12_2009-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -483,7 +483,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2008_2009</t>
+          <t>2007-12_2009-06</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -498,7 +498,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2008_2009</t>
+          <t>2007-12_2009-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2008_2009</t>
+          <t>2007-12_2009-06</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -528,7 +528,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2010_2019</t>
+          <t>2009-07_2019-12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -543,7 +543,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2010_2019</t>
+          <t>2009-07_2019-12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2010_2019</t>
+          <t>2009-07_2019-12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2010_2019</t>
+          <t>2009-07_2019-12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -588,7 +588,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2010_2019</t>
+          <t>2009-07_2019-12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -603,7 +603,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020_2021</t>
+          <t>2020-01_2022-05</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,73 +612,73 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.2313</v>
+        <v>-0.0465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020_2021</t>
+          <t>2020-01_2022-05</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.0225</v>
+        <v>-0.3646</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020_2021</t>
+          <t>2020-01_2022-05</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.224</v>
+        <v>-0.0561</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020_2021</t>
+          <t>2020-01_2022-05</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.1777</v>
+        <v>0.1159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020_2021</t>
+          <t>2020-01_2022-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.1577</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022_2023</t>
+          <t>2022-06_2023-12</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.246</v>
+        <v>0.6683</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022_2023</t>
+          <t>2022-06_2023-12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.4429</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022_2023</t>
+          <t>2022-06_2023-12</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.3414</v>
+        <v>-0.3229</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022_2023</t>
+          <t>2022-06_2023-12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -732,13 +732,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1738</v>
+        <v>-0.6046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022_2023</t>
+          <t>2022-06_2023-12</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.7594</v>
+        <v>-0.7256</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2007-12_2009-06</t>
+          <t>2007-12-01_2009-06-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,88 +462,88 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.0236</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2007-12_2009-06</t>
+          <t>2007-12-01_2009-06-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.07969999999999999</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2007-12_2009-06</t>
+          <t>2007-12-01_2009-06-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.4164</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2007-12_2009-06</t>
+          <t>2007-12-01_2009-06-30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.4366</v>
+        <v>0.0603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2007-12_2009-06</t>
+          <t>2007-12-01_2009-06-30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8377</v>
+        <v>-0.0979</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2009-07_2019-12</t>
+          <t>2009-07-01_2019-12-31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.06569999999999999</v>
+        <v>0.0683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2009-07_2019-12</t>
+          <t>2009-07-01_2019-12-31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -552,202 +552,202 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.0998</v>
+        <v>-0.07149999999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2009-07_2019-12</t>
+          <t>2009-07-01_2019-12-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.09619999999999999</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2009-07_2019-12</t>
+          <t>2009-07-01_2019-12-31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1881</v>
+        <v>-0.0454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2009-07_2019-12</t>
+          <t>2009-07-01_2019-12-31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1578</v>
+        <v>0.1091</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-01_2022-05</t>
+          <t>2020-01-01_2022-05-31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.0465</v>
+        <v>0.1677</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-01_2022-05</t>
+          <t>2020-01-01_2022-05-31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.3646</v>
+        <v>0.2312</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-01_2022-05</t>
+          <t>2020-01-01_2022-05-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.0561</v>
+        <v>0.1748</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-01_2022-05</t>
+          <t>2020-01-01_2022-05-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.1159</v>
+        <v>0.2797</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-01_2022-05</t>
+          <t>2020-01-01_2022-05-31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.375</v>
+        <v>0.0983</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-06_2023-12</t>
+          <t>2022-06-01_2023-12-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6683</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-06_2023-12</t>
+          <t>2022-06-01_2023-12-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.0164</v>
+        <v>-0.5284</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-06_2023-12</t>
+          <t>2022-06-01_2023-12-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.3229</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-06_2023-12</t>
+          <t>2022-06-01_2023-12-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.6046</v>
+        <v>0.2255</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-06_2023-12</t>
+          <t>2022-06-01_2023-12-31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.7256</v>
+        <v>-0.0471</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>market</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1474</v>
+        <v>-0.1385</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0306</v>
+        <v>0.0603</v>
       </c>
     </row>
     <row r="4">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0603</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="6">
@@ -518,41 +518,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.0979</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2009-07-01_2019-12-31</t>
+          <t>2007-12-01_2009-06-30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.0683</v>
+        <v>-0.0979</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2009-07-01_2019-12-31</t>
+          <t>2007-12-01_2009-06-30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.07149999999999999</v>
+        <v>-0.4355</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.0216</v>
+        <v>0.1091</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.0454</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="11">
@@ -593,17 +593,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>market</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1091</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-01-01_2022-05-31</t>
+          <t>2009-07-01_2019-12-31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -612,52 +612,52 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1677</v>
+        <v>0.0683</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-01-01_2022-05-31</t>
+          <t>2009-07-01_2019-12-31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2312</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-01-01_2022-05-31</t>
+          <t>2009-07-01_2019-12-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.1748</v>
+        <v>-0.07149999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-01-01_2022-05-31</t>
+          <t>2009-07-01_2019-12-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>uncertain</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2797</v>
+        <v>-0.0454</v>
       </c>
     </row>
     <row r="16">
@@ -678,22 +678,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-06-01_2023-12-31</t>
+          <t>2020-01-01_2022-05-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.168</v>
+        <v>0.2797</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-06-01_2023-12-31</t>
+          <t>2020-01-01_2022-05-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.5284</v>
+        <v>0.1677</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-06-01_2023-12-31</t>
+          <t>2020-01-01_2022-05-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,13 +717,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.004</v>
+        <v>0.2312</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-06-01_2023-12-31</t>
+          <t>2020-01-01_2022-05-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -732,22 +732,142 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.2255</v>
+        <v>0.1748</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>2020-01-01_2022-05-31</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.07190000000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-01-01_2022-05-31</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.299</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>2022-06-01_2023-12-31</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2022-06-01_2023-12-31</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>inflation</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-0.0471</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2022-06-01_2023-12-31</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>invest</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.5284</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2022-06-01_2023-12-31</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2022-06-01_2023-12-31</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>uncertain</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2255</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2022-06-01_2023-12-31</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>credit</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1454</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2022-06-01_2023-12-31</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>market</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0123</v>
       </c>
     </row>
   </sheetData>

--- a/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
+++ b/Models/Fed Models/Four Models/Correlation Table/Correlation Table SP500 Change.xlsx
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.1385</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.0603</v>
+        <v>0.0552</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>capital</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.0552</v>
+        <v>-0.3833</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>market</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.0306</v>
+        <v>-0.1385</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1474</v>
+        <v>-0.4355</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.0979</v>
+        <v>0.1474</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.4355</v>
+        <v>-0.0979</v>
       </c>
     </row>
     <row r="9">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>capital</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0696</v>
+        <v>0.0432</v>
       </c>
     </row>
     <row r="11">
@@ -608,11 +608,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0683</v>
+        <v>0.0696</v>
       </c>
     </row>
     <row r="13">
@@ -623,11 +623,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.0216</v>
+        <v>0.0683</v>
       </c>
     </row>
     <row r="14">
@@ -638,11 +638,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.07149999999999999</v>
+        <v>-0.0216</v>
       </c>
     </row>
     <row r="15">
@@ -653,11 +653,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.0454</v>
+        <v>-0.07149999999999999</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +668,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>capital</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0983</v>
+        <v>0.3168</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>market</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2797</v>
+        <v>0.299</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1677</v>
+        <v>0.07190000000000001</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.2312</v>
+        <v>0.1677</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1748</v>
+        <v>0.2797</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +743,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.07190000000000001</v>
+        <v>0.0983</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +758,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.299</v>
+        <v>0.2312</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +773,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>interest</t>
+          <t>invest</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.168</v>
+        <v>-0.5284</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +788,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>inflation</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.0471</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="25">
@@ -803,11 +803,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>invest</t>
+          <t>inflation</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.5284</v>
+        <v>-0.0471</v>
       </c>
     </row>
     <row r="26">
@@ -818,11 +818,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>trade</t>
+          <t>credit</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.004</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="27">
@@ -833,11 +833,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>uncertain</t>
+          <t>market</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2255</v>
+        <v>0.0123</v>
       </c>
     </row>
     <row r="28">
@@ -848,11 +848,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>credit</t>
+          <t>trade</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.1454</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="29">
@@ -863,11 +863,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>market</t>
+          <t>capital</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.0123</v>
+        <v>0.1325</v>
       </c>
     </row>
   </sheetData>
